--- a/chr_test.xlsx
+++ b/chr_test.xlsx
@@ -12,8 +12,7 @@
     <sheet name="WideData" sheetId="3" r:id="rId3"/>
     <sheet name="WideSampleData" sheetId="4" r:id="rId4"/>
     <sheet name="LLODs" sheetId="5" r:id="rId5"/>
-    <sheet name="LLODS_count" sheetId="6" r:id="rId6"/>
-    <sheet name="IntraplateCVs" sheetId="7" r:id="rId7"/>
+    <sheet name="IntraplateCVs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6671,27 +6670,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>100.498445311802</v>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>10123.3168680966</v>
+        <v>216.333928004186</v>
       </c>
       <c r="G2">
-        <v>10049.8445311802</v>
+        <v>204.713532710913</v>
       </c>
       <c r="H2">
-        <v>1.03390231564387</v>
+        <v>8.02766695794803</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Above Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J2">
@@ -6709,24 +6705,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>13.9756107967902</v>
+        <v>193.093137417641</v>
       </c>
       <c r="G3">
-        <v>16.8889717313941</v>
+        <v>204.713532710913</v>
       </c>
       <c r="H3">
-        <v>24.3952954113012</v>
+        <v>8.02766695794803</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J3">
@@ -6751,7 +6747,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>19.802332665998</v>
+        <v>13.9756107967902</v>
       </c>
       <c r="G4">
         <v>16.8889717313941</v>
@@ -6779,14 +6775,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>3.47815333493533</v>
+        <v>19.802332665998</v>
+      </c>
+      <c r="G5">
+        <v>16.8889717313941</v>
+      </c>
+      <c r="H5">
+        <v>24.3952954113012</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6808,14 +6810,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>6.97931444925998</v>
+        <v>3.47815333493533</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -6837,18 +6839,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>16.3065999703976</v>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J7">
@@ -6866,7 +6865,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C8">
@@ -6895,24 +6894,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>163</t>
         </is>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="F9">
-        <v>33.7787270026818</v>
-      </c>
-      <c r="G9">
-        <v>39.5994359458388</v>
-      </c>
-      <c r="H9">
-        <v>20.7874817744819</v>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J9">
@@ -6930,20 +6920,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>25.6269316394855</v>
-      </c>
-      <c r="G10">
-        <v>26.2092884990767</v>
-      </c>
-      <c r="H10">
-        <v>3.1423095251286</v>
+        <v>16.3065999703976</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -6965,24 +6949,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>26.791645358668</v>
-      </c>
-      <c r="G11">
-        <v>26.2092884990767</v>
-      </c>
-      <c r="H11">
-        <v>3.1423095251286</v>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J11">
@@ -7000,18 +6975,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>8.14580737092745</v>
+        <v>1564.58349372689</v>
+      </c>
+      <c r="G12">
+        <v>1566.90645388791</v>
+      </c>
+      <c r="H12">
+        <v>0.209659086949389</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J12">
@@ -7029,18 +7010,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>12.8099415206971</v>
+        <v>1569.22941404894</v>
+      </c>
+      <c r="G13">
+        <v>1566.90645388791</v>
+      </c>
+      <c r="H13">
+        <v>0.209659086949389</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J13">
@@ -7058,20 +7045,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>12.8099415206971</v>
-      </c>
-      <c r="G14">
-        <v>16.8886718235969</v>
-      </c>
-      <c r="H14">
-        <v>34.1542293667148</v>
+        <v>6.97931444925998</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -7093,24 +7074,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>20.9674021264967</v>
-      </c>
-      <c r="G15">
-        <v>16.8886718235969</v>
-      </c>
-      <c r="H15">
-        <v>34.1542293667148</v>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J15">
@@ -7128,24 +7100,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>26.791645358668</v>
+        <v>59.3852146786155</v>
       </c>
       <c r="G16">
-        <v>34.9419120028472</v>
+        <v>54.1485234318546</v>
       </c>
       <c r="H16">
-        <v>32.9867971283772</v>
+        <v>13.6768268343455</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J16">
@@ -7163,24 +7135,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>43.0921786470264</v>
+        <v>48.9118321850936</v>
       </c>
       <c r="G17">
-        <v>34.9419120028472</v>
+        <v>54.1485234318546</v>
       </c>
       <c r="H17">
-        <v>32.9867971283772</v>
+        <v>13.6768268343455</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J17">
@@ -7198,14 +7170,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>16.3065999703976</v>
+        <v>33.7787270026818</v>
+      </c>
+      <c r="G18">
+        <v>39.5994359458388</v>
+      </c>
+      <c r="H18">
+        <v>20.7874817744819</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -7227,24 +7205,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>22.1323926875378</v>
+        <v>45.4201448889957</v>
       </c>
       <c r="G19">
-        <v>16.8882671052655</v>
+        <v>39.5994359458388</v>
       </c>
       <c r="H19">
-        <v>43.9139994352935</v>
+        <v>20.7874817744819</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J19">
@@ -7262,20 +7240,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>11.6441415229932</v>
+        <v>25.6269316394855</v>
       </c>
       <c r="G20">
-        <v>16.8882671052655</v>
+        <v>26.2092884990767</v>
       </c>
       <c r="H20">
-        <v>43.9139994352935</v>
+        <v>3.1423095251286</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -7297,20 +7275,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>12.8099415206971</v>
+        <v>26.791645358668</v>
       </c>
       <c r="G21">
-        <v>155.23516038527</v>
+        <v>26.2092884990767</v>
       </c>
       <c r="H21">
-        <v>129.751324147404</v>
+        <v>3.1423095251286</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -7332,14 +7310,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C22">
         <v>10</v>
       </c>
       <c r="F22">
-        <v>24.4621537815603</v>
+        <v>8.14580737092745</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -7361,24 +7339,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>26.791645358668</v>
-      </c>
-      <c r="G23">
-        <v>100.645118171951</v>
-      </c>
-      <c r="H23">
-        <v>103.775110783272</v>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J23">
@@ -7396,18 +7365,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0.347815333493533</v>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>10</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J24">
@@ -7425,27 +7391,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>2.44140625</v>
-      </c>
-      <c r="E25">
-        <v>112.120072456557</v>
-      </c>
-      <c r="F25">
-        <v>3.37787270026818</v>
-      </c>
-      <c r="G25">
-        <v>2.73730645645893</v>
-      </c>
-      <c r="H25">
-        <v>33.0944848157534</v>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J25">
@@ -7463,27 +7417,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>2.44140625</v>
-      </c>
-      <c r="E26">
-        <v>112.120072456557</v>
-      </c>
-      <c r="F26">
-        <v>2.09674021264967</v>
-      </c>
-      <c r="G26">
-        <v>2.73730645645893</v>
-      </c>
-      <c r="H26">
-        <v>33.0944848157534</v>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>10</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J26">
@@ -7501,7 +7443,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C27">
@@ -7527,7 +7469,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C28">
@@ -7553,7 +7495,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C29">
@@ -7579,15 +7521,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
+      <c r="F30">
+        <v>12.8099415206971</v>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J30">
@@ -7605,7 +7550,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C31">
@@ -7631,15 +7576,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
+      <c r="F32">
+        <v>12.8099415206971</v>
+      </c>
+      <c r="G32">
+        <v>16.8886718235969</v>
+      </c>
+      <c r="H32">
+        <v>34.1542293667148</v>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J32">
@@ -7657,15 +7611,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>234</t>
         </is>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
+      <c r="F33">
+        <v>20.9674021264967</v>
+      </c>
+      <c r="G33">
+        <v>16.8886718235969</v>
+      </c>
+      <c r="H33">
+        <v>34.1542293667148</v>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J33">
@@ -7683,15 +7646,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
+      <c r="F34">
+        <v>26.791645358668</v>
+      </c>
+      <c r="G34">
+        <v>34.9419120028472</v>
+      </c>
+      <c r="H34">
+        <v>32.9867971283772</v>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J34">
@@ -7709,15 +7681,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
+      <c r="F35">
+        <v>43.0921786470264</v>
+      </c>
+      <c r="G35">
+        <v>34.9419120028472</v>
+      </c>
+      <c r="H35">
+        <v>32.9867971283772</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J35">
@@ -7735,15 +7716,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
+      <c r="F36">
+        <v>45.4201448889957</v>
+      </c>
+      <c r="G36">
+        <v>59.3832908908864</v>
+      </c>
+      <c r="H36">
+        <v>33.2532437206171</v>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J36">
@@ -7761,15 +7751,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>312</t>
         </is>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
+      <c r="F37">
+        <v>73.34643689277711</v>
+      </c>
+      <c r="G37">
+        <v>59.3832908908864</v>
+      </c>
+      <c r="H37">
+        <v>33.2532437206171</v>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J37">
@@ -7787,15 +7786,18 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>314</t>
         </is>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
+      <c r="F38">
+        <v>16.3065999703976</v>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J38">
@@ -7839,15 +7841,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>316</t>
         </is>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
+      <c r="F40">
+        <v>22.1323926875378</v>
+      </c>
+      <c r="G40">
+        <v>16.8882671052655</v>
+      </c>
+      <c r="H40">
+        <v>43.9139994352935</v>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J40">
@@ -7865,15 +7876,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>316</t>
         </is>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
+      <c r="F41">
+        <v>11.6441415229932</v>
+      </c>
+      <c r="G41">
+        <v>16.8882671052655</v>
+      </c>
+      <c r="H41">
+        <v>43.9139994352935</v>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J41">
@@ -7891,15 +7911,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>317</t>
         </is>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
+      <c r="F42">
+        <v>12.8099415206971</v>
+      </c>
+      <c r="G42">
+        <v>155.23516038527</v>
+      </c>
+      <c r="H42">
+        <v>129.751324147404</v>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J42">
@@ -7917,15 +7946,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>317</t>
         </is>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
+      <c r="F43">
+        <v>297.660379249843</v>
+      </c>
+      <c r="G43">
+        <v>155.23516038527</v>
+      </c>
+      <c r="H43">
+        <v>129.751324147404</v>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J43">
@@ -7943,15 +7981,18 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>318</t>
         </is>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
+      <c r="F44">
+        <v>24.4621537815603</v>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J44">
@@ -7969,7 +8010,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>318</t>
         </is>
       </c>
       <c r="C45">
@@ -7995,15 +8036,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>321</t>
         </is>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
+      <c r="F46">
+        <v>26.791645358668</v>
+      </c>
+      <c r="G46">
+        <v>100.645118171951</v>
+      </c>
+      <c r="H46">
+        <v>103.775110783272</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J46">
@@ -8021,15 +8071,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>321</t>
         </is>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
+      <c r="F47">
+        <v>174.498590985234</v>
+      </c>
+      <c r="G47">
+        <v>100.645118171951</v>
+      </c>
+      <c r="H47">
+        <v>103.775110783272</v>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J47">
@@ -8047,15 +8106,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
+      <c r="F48">
+        <v>517.167583712585</v>
+      </c>
+      <c r="G48">
+        <v>583.35525789383</v>
+      </c>
+      <c r="H48">
+        <v>16.045712320653</v>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J48">
@@ -8073,15 +8141,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C49">
         <v>10</v>
       </c>
+      <c r="F49">
+        <v>649.542932075074</v>
+      </c>
+      <c r="G49">
+        <v>583.35525789383</v>
+      </c>
+      <c r="H49">
+        <v>16.045712320653</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J49">
@@ -8099,15 +8176,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>524</t>
         </is>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
+      <c r="F50">
+        <v>219.819839250675</v>
+      </c>
+      <c r="G50">
+        <v>254.674259303768</v>
+      </c>
+      <c r="H50">
+        <v>19.354760737299</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J50">
@@ -8125,15 +8211,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>524</t>
         </is>
       </c>
       <c r="C51">
         <v>10</v>
       </c>
+      <c r="F51">
+        <v>289.528679356861</v>
+      </c>
+      <c r="G51">
+        <v>254.674259303768</v>
+      </c>
+      <c r="H51">
+        <v>19.354760737299</v>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J51">
@@ -8151,15 +8246,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>525</t>
         </is>
       </c>
       <c r="C52">
         <v>10</v>
       </c>
+      <c r="F52">
+        <v>123.352548891295</v>
+      </c>
+      <c r="G52">
+        <v>115.7949257054</v>
+      </c>
+      <c r="H52">
+        <v>9.23019134360837</v>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J52">
@@ -8177,15 +8281,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>0</v>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>108.237302519506</v>
+      </c>
+      <c r="G53">
+        <v>115.7949257054</v>
+      </c>
+      <c r="H53">
+        <v>9.23019134360837</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>In Detection Range</t>
         </is>
       </c>
       <c r="J53">
@@ -8203,24 +8316,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
-      <c r="F54">
-        <v>216.333928004186</v>
-      </c>
-      <c r="G54">
-        <v>204.713532710913</v>
-      </c>
-      <c r="H54">
-        <v>8.02766695794803</v>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J54">
@@ -8238,24 +8342,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
-      <c r="F55">
-        <v>193.093137417641</v>
-      </c>
-      <c r="G55">
-        <v>204.713532710913</v>
-      </c>
-      <c r="H55">
-        <v>8.02766695794803</v>
-      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J55">
@@ -8273,24 +8368,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
-      <c r="F56">
-        <v>1564.58349372689</v>
-      </c>
-      <c r="G56">
-        <v>1566.90645388791</v>
-      </c>
-      <c r="H56">
-        <v>0.209659086949389</v>
-      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J56">
@@ -8308,24 +8394,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="F57">
-        <v>1569.22941404894</v>
-      </c>
-      <c r="G57">
-        <v>1566.90645388791</v>
-      </c>
-      <c r="H57">
-        <v>0.209659086949389</v>
-      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J57">
@@ -8343,20 +8420,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>528</t>
         </is>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="F58">
-        <v>59.3852146786155</v>
+        <v>1431.01968200367</v>
       </c>
       <c r="G58">
-        <v>54.1485234318546</v>
+        <v>1264.37837687347</v>
       </c>
       <c r="H58">
-        <v>13.6768268343455</v>
+        <v>18.6389136414551</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -8378,20 +8455,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>528</t>
         </is>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="F59">
-        <v>48.9118321850936</v>
+        <v>1097.73707174327</v>
       </c>
       <c r="G59">
-        <v>54.1485234318546</v>
+        <v>1264.37837687347</v>
       </c>
       <c r="H59">
-        <v>13.6768268343455</v>
+        <v>18.6389136414551</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -8413,24 +8490,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>530</t>
         </is>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
-      <c r="F60">
-        <v>45.4201448889957</v>
-      </c>
-      <c r="G60">
-        <v>39.5994359458388</v>
-      </c>
-      <c r="H60">
-        <v>20.7874817744819</v>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J60">
@@ -8448,24 +8516,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>530</t>
         </is>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
-      <c r="F61">
-        <v>45.4201448889957</v>
-      </c>
-      <c r="G61">
-        <v>59.3832908908864</v>
-      </c>
-      <c r="H61">
-        <v>33.2532437206171</v>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J61">
@@ -8483,20 +8542,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="F62">
-        <v>73.34643689277711</v>
+        <v>130.32813348873</v>
       </c>
       <c r="G62">
-        <v>59.3832908908864</v>
+        <v>120.445499575538</v>
       </c>
       <c r="H62">
-        <v>33.2532437206171</v>
+        <v>11.6037170016792</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -8518,20 +8577,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="F63">
-        <v>297.660379249843</v>
+        <v>110.562865662346</v>
       </c>
       <c r="G63">
-        <v>155.23516038527</v>
+        <v>120.445499575538</v>
       </c>
       <c r="H63">
-        <v>129.751324147404</v>
+        <v>11.6037170016792</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -8553,20 +8612,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="F64">
-        <v>174.498590985234</v>
+        <v>2554.57709632838</v>
       </c>
       <c r="G64">
-        <v>100.645118171951</v>
+        <v>2488.89974051822</v>
       </c>
       <c r="H64">
-        <v>103.775110783272</v>
+        <v>3.73184205918183</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -8588,20 +8647,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>74</t>
         </is>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="F65">
-        <v>517.167583712585</v>
+        <v>2423.22238470807</v>
       </c>
       <c r="G65">
-        <v>583.35525789383</v>
+        <v>2488.89974051822</v>
       </c>
       <c r="H65">
-        <v>16.045712320653</v>
+        <v>3.73184205918183</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -8623,24 +8682,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
-      <c r="F66">
-        <v>649.542932075074</v>
-      </c>
-      <c r="G66">
-        <v>583.35525789383</v>
-      </c>
-      <c r="H66">
-        <v>16.045712320653</v>
-      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J66">
@@ -8658,24 +8708,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C67">
         <v>10</v>
       </c>
-      <c r="F67">
-        <v>219.819839250675</v>
-      </c>
-      <c r="G67">
-        <v>254.674259303768</v>
-      </c>
-      <c r="H67">
-        <v>19.354760737299</v>
-      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J67">
@@ -8693,20 +8734,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C68">
         <v>10</v>
       </c>
       <c r="F68">
-        <v>289.528679356861</v>
+        <v>1015.29509266599</v>
       </c>
       <c r="G68">
-        <v>254.674259303768</v>
+        <v>969.430596492787</v>
       </c>
       <c r="H68">
-        <v>19.354760737299</v>
+        <v>6.69075153540782</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -8728,20 +8769,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
       <c r="F69">
-        <v>123.352548891295</v>
+        <v>923.566100319583</v>
       </c>
       <c r="G69">
-        <v>115.7949257054</v>
+        <v>969.430596492787</v>
       </c>
       <c r="H69">
-        <v>9.23019134360837</v>
+        <v>6.69075153540782</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -8763,24 +8804,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
-      <c r="F70">
-        <v>108.237302519506</v>
-      </c>
-      <c r="G70">
-        <v>115.7949257054</v>
-      </c>
-      <c r="H70">
-        <v>9.23019134360837</v>
-      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J70">
@@ -8798,24 +8830,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
-      <c r="F71">
-        <v>1431.01968200367</v>
-      </c>
-      <c r="G71">
-        <v>1264.37837687347</v>
-      </c>
-      <c r="H71">
-        <v>18.6389136414551</v>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J71">
@@ -8833,24 +8856,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
-      <c r="F72">
-        <v>1097.73707174327</v>
-      </c>
-      <c r="G72">
-        <v>1264.37837687347</v>
-      </c>
-      <c r="H72">
-        <v>18.6389136414551</v>
-      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J72">
@@ -8868,24 +8882,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C73">
         <v>10</v>
       </c>
-      <c r="F73">
-        <v>130.32813348873</v>
-      </c>
-      <c r="G73">
-        <v>120.445499575538</v>
-      </c>
-      <c r="H73">
-        <v>11.6037170016792</v>
-      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J73">
@@ -8903,20 +8908,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="F74">
-        <v>110.562865662346</v>
+        <v>447.490556464268</v>
       </c>
       <c r="G74">
-        <v>120.445499575538</v>
+        <v>451.555190927046</v>
       </c>
       <c r="H74">
-        <v>11.6037170016792</v>
+        <v>1.27299193960083</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -8938,20 +8943,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
       <c r="F75">
-        <v>2554.57709632838</v>
+        <v>455.619825389825</v>
       </c>
       <c r="G75">
-        <v>2488.89974051822</v>
+        <v>451.555190927046</v>
       </c>
       <c r="H75">
-        <v>3.73184205918183</v>
+        <v>1.27299193960083</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -8973,20 +8978,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
       <c r="F76">
-        <v>2423.22238470807</v>
+        <v>374.322892157983</v>
       </c>
       <c r="G76">
-        <v>2488.89974051822</v>
+        <v>354.577301601092</v>
       </c>
       <c r="H76">
-        <v>3.73184205918183</v>
+        <v>7.87542852758162</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -9008,20 +9013,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="F77">
-        <v>1015.29509266599</v>
+        <v>334.831711044201</v>
       </c>
       <c r="G77">
-        <v>969.430596492787</v>
+        <v>354.577301601092</v>
       </c>
       <c r="H77">
-        <v>6.69075153540782</v>
+        <v>7.87542852758162</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -9043,24 +9048,18 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="C78">
-        <v>10</v>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>923.566100319583</v>
-      </c>
-      <c r="G78">
-        <v>969.430596492787</v>
-      </c>
-      <c r="H78">
-        <v>6.69075153540782</v>
+        <v>0.347815333493533</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J78">
@@ -9078,24 +9077,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>447.490556464268</v>
-      </c>
-      <c r="G79">
-        <v>451.555190927046</v>
-      </c>
-      <c r="H79">
-        <v>1.27299193960083</v>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Fit Curve Range</t>
         </is>
       </c>
       <c r="J79">
@@ -9113,20 +9103,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="C80">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>455.619825389825</v>
+        <v>82.652188629888</v>
       </c>
       <c r="G80">
-        <v>451.555190927046</v>
+        <v>91.3747917580571</v>
       </c>
       <c r="H80">
-        <v>1.27299193960083</v>
+        <v>13.5000292812892</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -9148,20 +9138,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="C81">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>374.322892157983</v>
+        <v>186.120395712749</v>
       </c>
       <c r="G81">
-        <v>354.577301601092</v>
+        <v>129.733416302763</v>
       </c>
       <c r="H81">
-        <v>7.87542852758162</v>
+        <v>61.4669938520352</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -9183,20 +9173,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="C82">
         <v>10</v>
       </c>
       <c r="F82">
-        <v>334.831711044201</v>
+        <v>73.34643689277711</v>
       </c>
       <c r="G82">
-        <v>354.577301601092</v>
+        <v>129.733416302763</v>
       </c>
       <c r="H82">
-        <v>7.87542852758162</v>
+        <v>61.4669938520352</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -9225,7 +9215,7 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>82.652188629888</v>
+        <v>100.097394886226</v>
       </c>
       <c r="G83">
         <v>91.3747917580571</v>
@@ -9253,24 +9243,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>10</v>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>10000</v>
+      </c>
+      <c r="E84">
+        <v>100.498445311802</v>
       </c>
       <c r="F84">
-        <v>186.120395712749</v>
+        <v>10123.3168680966</v>
       </c>
       <c r="G84">
-        <v>129.733416302763</v>
+        <v>10049.8445311802</v>
       </c>
       <c r="H84">
-        <v>61.4669938520352</v>
+        <v>1.03390231564387</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Above Fit Curve Range</t>
         </is>
       </c>
       <c r="J84">
@@ -9288,20 +9281,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>10</v>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>10000</v>
+      </c>
+      <c r="E85">
+        <v>100.498445311802</v>
       </c>
       <c r="F85">
-        <v>73.34643689277711</v>
+        <v>9976.372194263769</v>
       </c>
       <c r="G85">
-        <v>129.733416302763</v>
+        <v>10049.8445311802</v>
       </c>
       <c r="H85">
-        <v>61.4669938520352</v>
+        <v>1.03390231564387</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -9323,20 +9319,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>10</v>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>2500</v>
+      </c>
+      <c r="E86">
+        <v>97.8906125608335</v>
       </c>
       <c r="F86">
-        <v>100.097394886226</v>
+        <v>2469.31051219341</v>
       </c>
       <c r="G86">
-        <v>91.3747917580571</v>
+        <v>2447.26531402083</v>
       </c>
       <c r="H86">
-        <v>13.5000292812892</v>
+        <v>1.27393699662416</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -9358,23 +9357,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="D87">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="E87">
-        <v>100.498445311802</v>
+        <v>97.8906125608335</v>
       </c>
       <c r="F87">
-        <v>9976.372194263769</v>
+        <v>2425.22011584826</v>
       </c>
       <c r="G87">
-        <v>10049.8445311802</v>
+        <v>2447.26531402083</v>
       </c>
       <c r="H87">
-        <v>1.03390231564387</v>
+        <v>1.27393699662416</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -9396,23 +9395,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D88">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="E88">
-        <v>97.8906125608335</v>
+        <v>101.28945506574</v>
       </c>
       <c r="F88">
-        <v>2469.31051219341</v>
+        <v>625.584879485891</v>
       </c>
       <c r="G88">
-        <v>2447.26531402083</v>
+        <v>633.059094160878</v>
       </c>
       <c r="H88">
-        <v>1.27393699662416</v>
+        <v>1.66969179638218</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -9434,23 +9433,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D89">
-        <v>2500</v>
+        <v>625</v>
       </c>
       <c r="E89">
-        <v>97.8906125608335</v>
+        <v>101.28945506574</v>
       </c>
       <c r="F89">
-        <v>2425.22011584826</v>
+        <v>640.533308835866</v>
       </c>
       <c r="G89">
-        <v>2447.26531402083</v>
+        <v>633.059094160878</v>
       </c>
       <c r="H89">
-        <v>1.27393699662416</v>
+        <v>1.66969179638218</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -9472,23 +9471,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D90">
-        <v>625</v>
+        <v>156.25</v>
       </c>
       <c r="E90">
-        <v>101.28945506574</v>
+        <v>102.214744949954</v>
       </c>
       <c r="F90">
-        <v>625.584879485891</v>
+        <v>161.568947842274</v>
       </c>
       <c r="G90">
-        <v>633.059094160878</v>
+        <v>159.710538984303</v>
       </c>
       <c r="H90">
-        <v>1.66969179638218</v>
+        <v>1.64559397776217</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -9510,23 +9509,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S4</t>
         </is>
       </c>
       <c r="D91">
-        <v>625</v>
+        <v>156.25</v>
       </c>
       <c r="E91">
-        <v>101.28945506574</v>
+        <v>102.214744949954</v>
       </c>
       <c r="F91">
-        <v>640.533308835866</v>
+        <v>157.852130126331</v>
       </c>
       <c r="G91">
-        <v>633.059094160878</v>
+        <v>159.710538984303</v>
       </c>
       <c r="H91">
-        <v>1.66969179638218</v>
+        <v>1.64559397776217</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -9548,23 +9547,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D92">
-        <v>156.25</v>
+        <v>39.0625</v>
       </c>
       <c r="E92">
-        <v>102.214744949954</v>
+        <v>98.9486264510746</v>
       </c>
       <c r="F92">
-        <v>161.568947842274</v>
+        <v>38.129161204382</v>
       </c>
       <c r="G92">
-        <v>159.710538984303</v>
+        <v>38.651807207451</v>
       </c>
       <c r="H92">
-        <v>1.64559397776217</v>
+        <v>1.91228591691242</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -9586,23 +9585,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D93">
-        <v>156.25</v>
+        <v>39.0625</v>
       </c>
       <c r="E93">
-        <v>102.214744949954</v>
+        <v>98.9486264510746</v>
       </c>
       <c r="F93">
-        <v>157.852130126331</v>
+        <v>39.17445321052</v>
       </c>
       <c r="G93">
-        <v>159.710538984303</v>
+        <v>38.651807207451</v>
       </c>
       <c r="H93">
-        <v>1.64559397776217</v>
+        <v>1.91228591691242</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -9624,23 +9623,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="D94">
-        <v>39.0625</v>
+        <v>9.765625</v>
       </c>
       <c r="E94">
-        <v>98.9486264510746</v>
+        <v>91.781546384408</v>
       </c>
       <c r="F94">
-        <v>38.129161204382</v>
+        <v>9.66086441521589</v>
       </c>
       <c r="G94">
-        <v>38.651807207451</v>
+        <v>8.96304163910235</v>
       </c>
       <c r="H94">
-        <v>1.91228591691242</v>
+        <v>11.0104412525239</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -9662,23 +9661,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S6</t>
         </is>
       </c>
       <c r="D95">
-        <v>39.0625</v>
+        <v>9.765625</v>
       </c>
       <c r="E95">
-        <v>98.9486264510746</v>
+        <v>91.781546384408</v>
       </c>
       <c r="F95">
-        <v>39.17445321052</v>
+        <v>8.265218862988799</v>
       </c>
       <c r="G95">
-        <v>38.651807207451</v>
+        <v>8.96304163910235</v>
       </c>
       <c r="H95">
-        <v>1.91228591691242</v>
+        <v>11.0104412525239</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9700,27 +9699,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D96">
-        <v>9.765625</v>
+        <v>2.44140625</v>
       </c>
       <c r="E96">
-        <v>91.781546384408</v>
+        <v>112.120072456557</v>
       </c>
       <c r="F96">
-        <v>9.66086441521589</v>
+        <v>3.37787270026818</v>
       </c>
       <c r="G96">
-        <v>8.96304163910235</v>
+        <v>2.73730645645893</v>
       </c>
       <c r="H96">
-        <v>11.0104412525239</v>
+        <v>33.0944848157534</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J96">
@@ -9738,27 +9737,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D97">
-        <v>9.765625</v>
+        <v>2.44140625</v>
       </c>
       <c r="E97">
-        <v>91.781546384408</v>
+        <v>112.120072456557</v>
       </c>
       <c r="F97">
-        <v>8.265218862988799</v>
+        <v>2.09674021264967</v>
       </c>
       <c r="G97">
-        <v>8.96304163910235</v>
+        <v>2.73730645645893</v>
       </c>
       <c r="H97">
-        <v>11.0104412525239</v>
+        <v>33.0944848157534</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>Below Detection Range</t>
         </is>
       </c>
       <c r="J97">
@@ -9775,7 +9774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9789,417 +9788,360 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Calc. Conc. Mean</t>
+          <t>Ang-2_(pg/mL)_V1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ang-2_(pg/mL)_V1_std</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column_std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Ang-2_(pg/mL)_V1_qc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column_qc</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>120.445499575538</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>10049.8445311802</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>110.5541040304101</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A3">
+        <v>74</v>
       </c>
       <c r="B3">
+        <v>2488.89974051822</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="E3">
+        <v>2447.26531402083</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>76</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="E4">
+        <v>633.059094160878</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>969.430596492787</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="E5">
+        <v>159.710538984303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="E6">
+        <v>38.651807207451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>82</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="E7">
+        <v>8.96304163910235</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>451.555190927046</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>2.73730645645893</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>354.577301601092</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>204.713532710913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>160</v>
+      </c>
+      <c r="B11">
         <v>16.8889717313941</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="B8">
+    <row r="12">
+      <c r="A12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>1566.90645388791</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>54.1485234318546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>221</v>
+      </c>
+      <c r="B18">
         <v>39.5994359458388</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="B9">
+    <row r="19">
+      <c r="A19">
+        <v>223</v>
+      </c>
+      <c r="B19">
         <v>26.2092884990767</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B12">
+    <row r="20">
+      <c r="A20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>234</v>
+      </c>
+      <c r="B25">
         <v>16.8886718235969</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="B13">
+    <row r="26">
+      <c r="A26">
+        <v>309</v>
+      </c>
+      <c r="B26">
         <v>34.9419120028472</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="B15">
+    <row r="27">
+      <c r="A27">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>59.3832908908864</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>316</v>
+      </c>
+      <c r="B29">
         <v>16.8882671052655</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="B16">
+    <row r="30">
+      <c r="A30">
+        <v>317</v>
+      </c>
+      <c r="B30">
         <v>155.23516038527</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="B18">
+    <row r="31">
+      <c r="A31">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>321</v>
+      </c>
+      <c r="B32">
         <v>100.645118171951</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>2.73730645645893</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>204.713532710913</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>1566.90645388791</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>54.1485234318546</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>59.3832908908864</v>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
+      <c r="A33">
+        <v>523</v>
       </c>
       <c r="B33">
         <v>583.35525789383</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
+      <c r="A34">
+        <v>524</v>
       </c>
       <c r="B34">
         <v>254.674259303768</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
+      <c r="A35">
+        <v>525</v>
       </c>
       <c r="B35">
         <v>115.7949257054</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B36">
+      <c r="A36">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>528</v>
+      </c>
+      <c r="B38">
         <v>1264.37837687347</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>120.445499575538</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>2488.89974051822</v>
-      </c>
-    </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>969.430596492787</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>451.555190927046</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>354.577301601092</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>91.3747917580571</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>2447.26531402083</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>633.059094160878</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>159.710538984303</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>38.651807207451</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>8.96304163910235</v>
+      <c r="A39">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10223,337 +10165,261 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Calc. Conc. Mean</t>
+          <t>Ang-2_(pg/mL)_V1</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A2">
+        <v>70</v>
       </c>
       <c r="B2">
+        <v>120.445499575538</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>2488.89974051822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>969.430596492787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>451.555190927046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>354.577301601092</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>204.713532710913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>160</v>
+      </c>
+      <c r="B11">
         <v>16.8889717313941</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="B7">
+    <row r="12">
+      <c r="A12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>1566.90645388791</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>54.1485234318546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>221</v>
+      </c>
+      <c r="B18">
         <v>39.5994359458388</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="B8">
+    <row r="19">
+      <c r="A19">
+        <v>223</v>
+      </c>
+      <c r="B19">
         <v>26.2092884990767</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B11">
+    <row r="20">
+      <c r="A20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>234</v>
+      </c>
+      <c r="B25">
         <v>16.8886718235969</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="B12">
+    <row r="26">
+      <c r="A26">
+        <v>309</v>
+      </c>
+      <c r="B26">
         <v>34.9419120028472</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="B14">
+    <row r="27">
+      <c r="A27">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>59.3832908908864</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>316</v>
+      </c>
+      <c r="B29">
         <v>16.8882671052655</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="B15">
+    <row r="30">
+      <c r="A30">
+        <v>317</v>
+      </c>
+      <c r="B30">
         <v>155.23516038527</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="B17">
+    <row r="31">
+      <c r="A31">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>321</v>
+      </c>
+      <c r="B32">
         <v>100.645118171951</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>204.713532710913</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>1566.90645388791</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>54.1485234318546</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>59.3832908908864</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B31">
+    <row r="33">
+      <c r="A33">
+        <v>523</v>
+      </c>
+      <c r="B33">
         <v>583.35525789383</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="B32">
+    <row r="34">
+      <c r="A34">
+        <v>524</v>
+      </c>
+      <c r="B34">
         <v>254.674259303768</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B33">
+    <row r="35">
+      <c r="A35">
+        <v>525</v>
+      </c>
+      <c r="B35">
         <v>115.7949257054</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B34">
+    <row r="36">
+      <c r="A36">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>528</v>
+      </c>
+      <c r="B38">
         <v>1264.37837687347</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>120.445499575538</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>2488.89974051822</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>969.430596492787</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>451.555190927046</v>
-      </c>
-    </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>354.577301601092</v>
+      <c r="A39">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10563,7 +10429,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10600,40 +10466,187 @@
           <t>Detection Range</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Assay_std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Well_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Signal_std</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Calc. Concentration_std</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Detection Range_std</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column_std</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Assay_qc</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Well_qc</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Signal_qc</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Calc. Concentration_qc</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Detection Range_qc</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column_qc</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Below Detection Range</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A05</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>130.32813348873</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>A01</t>
         </is>
       </c>
-      <c r="D2">
+      <c r="K2">
         <v>81624</v>
       </c>
-      <c r="E2">
+      <c r="L2">
         <v>10123.3168680966</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Above Fit Curve Range</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="R2">
+        <v>259</v>
+      </c>
+      <c r="S2">
+        <v>82.652188629888</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A3">
+        <v>70</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -10642,2569 +10655,2280 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A06</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>283</v>
+      </c>
+      <c r="E3">
+        <v>110.562865662346</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="K3">
+        <v>217</v>
+      </c>
+      <c r="L3">
+        <v>3.37787270026818</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Below Detection Range</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>A03</t>
+        </is>
+      </c>
+      <c r="R3">
+        <v>348</v>
+      </c>
+      <c r="S3">
+        <v>186.120395712749</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>74</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B06</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>2387</v>
+      </c>
+      <c r="E4">
+        <v>2554.57709632838</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>G02</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>206</v>
+      </c>
+      <c r="L4">
+        <v>2.09674021264967</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Below Detection Range</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A04</t>
+        </is>
+      </c>
+      <c r="R4">
+        <v>251</v>
+      </c>
+      <c r="S4">
+        <v>73.34643689277711</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>74</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B05</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>2274</v>
+      </c>
+      <c r="E5">
+        <v>2423.22238470807</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A02</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>80524</v>
+      </c>
+      <c r="L5">
+        <v>9976.372194263769</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>H12</t>
+        </is>
+      </c>
+      <c r="R5">
+        <v>274</v>
+      </c>
+      <c r="S5">
+        <v>100.097394886226</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>76</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C06</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>177</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>B01</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>21152</v>
+      </c>
+      <c r="L6">
+        <v>2469.31051219341</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C05</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>165</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>B02</t>
+        </is>
+      </c>
+      <c r="K7">
+        <v>20784</v>
+      </c>
+      <c r="L7">
+        <v>2425.22011584826</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>77</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D06</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1062</v>
+      </c>
+      <c r="E8">
+        <v>1015.29509266599</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+      <c r="K8">
+        <v>5564</v>
+      </c>
+      <c r="L8">
+        <v>625.584879485891</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>77</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D05</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>983</v>
+      </c>
+      <c r="E9">
+        <v>923.566100319583</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>C01</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>5692</v>
+      </c>
+      <c r="L9">
+        <v>640.533308835866</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>155</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>D02</t>
+        </is>
+      </c>
+      <c r="K10">
+        <v>1579</v>
+      </c>
+      <c r="L10">
+        <v>161.568947842274</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>81</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>E06</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>175</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>D01</t>
+        </is>
+      </c>
+      <c r="K11">
+        <v>1547</v>
+      </c>
+      <c r="L11">
+        <v>157.852130126331</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>82</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>176</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>516</v>
+      </c>
+      <c r="L12">
+        <v>38.129161204382</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>82</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>F06</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>178</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>E02</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>525</v>
+      </c>
+      <c r="L13">
+        <v>39.17445321052</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>83</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>G05</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>573</v>
+      </c>
+      <c r="E14">
+        <v>447.490556464268</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F01</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>271</v>
+      </c>
+      <c r="L14">
+        <v>9.66086441521589</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>83</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G06</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>580</v>
+      </c>
+      <c r="E15">
+        <v>455.619825389825</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
+      <c r="K15">
+        <v>259</v>
+      </c>
+      <c r="L15">
+        <v>8.265218862988799</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>84</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>H06</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>510</v>
+      </c>
+      <c r="E16">
+        <v>374.322892157983</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>84</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>H05</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>476</v>
+      </c>
+      <c r="E17">
+        <v>334.831711044201</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>159</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A08</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>374</v>
+      </c>
+      <c r="E18">
+        <v>216.333928004186</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>159</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A07</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>354</v>
+      </c>
+      <c r="E19">
+        <v>193.093137417641</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>B07</t>
         </is>
       </c>
-      <c r="D3">
+      <c r="D20">
         <v>200</v>
       </c>
-      <c r="E3">
+      <c r="E20">
         <v>13.9756107967902</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="21">
+      <c r="A21">
+        <v>160</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>B08</t>
         </is>
       </c>
-      <c r="D4">
+      <c r="D21">
         <v>205</v>
       </c>
-      <c r="E4">
+      <c r="E21">
         <v>19.802332665998</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="22">
+      <c r="A22">
+        <v>162</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>C08</t>
         </is>
       </c>
-      <c r="D5">
+      <c r="D22">
         <v>191</v>
       </c>
-      <c r="E5">
+      <c r="E22">
         <v>3.47815333493533</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="23">
+      <c r="A23">
+        <v>162</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C07</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>172</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>163</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>D08</t>
         </is>
       </c>
-      <c r="D6">
+      <c r="D24">
         <v>194</v>
       </c>
-      <c r="E6">
+      <c r="E24">
         <v>6.97931444925998</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="25">
+      <c r="A25">
+        <v>163</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D07</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>182</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>164</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>E08</t>
         </is>
       </c>
-      <c r="D7">
+      <c r="D26">
         <v>202</v>
       </c>
-      <c r="E7">
+      <c r="E26">
         <v>16.3065999703976</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="27">
+      <c r="A27">
+        <v>164</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E07</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>185</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>165</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1535</v>
+      </c>
+      <c r="E28">
+        <v>1564.58349372689</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>165</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>1539</v>
+      </c>
+      <c r="E29">
+        <v>1569.22941404894</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>166</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>G08</t>
         </is>
       </c>
-      <c r="D8">
+      <c r="D30">
         <v>194</v>
       </c>
-      <c r="E8">
+      <c r="E30">
         <v>6.97931444925998</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+    <row r="31">
+      <c r="A31">
+        <v>166</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>G07</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>182</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>167</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>H08</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>239</v>
+      </c>
+      <c r="E32">
+        <v>59.3852146786155</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>167</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H07</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>230</v>
+      </c>
+      <c r="E33">
+        <v>48.9118321850936</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>221</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>A09</t>
         </is>
       </c>
-      <c r="D9">
+      <c r="D34">
         <v>217</v>
       </c>
-      <c r="E9">
+      <c r="E34">
         <v>33.7787270026818</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+    <row r="35">
+      <c r="A35">
+        <v>221</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>227</v>
+      </c>
+      <c r="E35">
+        <v>45.4201448889957</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>223</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>B10</t>
         </is>
       </c>
-      <c r="D10">
+      <c r="D36">
         <v>210</v>
       </c>
-      <c r="E10">
+      <c r="E36">
         <v>25.6269316394855</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+    <row r="37">
+      <c r="A37">
+        <v>223</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>B09</t>
         </is>
       </c>
-      <c r="D11">
+      <c r="D37">
         <v>211</v>
       </c>
-      <c r="E11">
+      <c r="E37">
         <v>26.791645358668</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+    <row r="38">
+      <c r="A38">
+        <v>228</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>C10</t>
         </is>
       </c>
-      <c r="D12">
+      <c r="D38">
         <v>195</v>
       </c>
-      <c r="E12">
+      <c r="E38">
         <v>8.14580737092745</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+    <row r="39">
+      <c r="A39">
+        <v>228</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>C09</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>184</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>229</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>185</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>229</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>D09</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>179</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>230</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E09</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>177</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>230</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>184</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>232</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>F09</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>181</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>232</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>F10</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>182</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>233</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>G10</t>
         </is>
       </c>
-      <c r="D13">
+      <c r="D46">
         <v>199</v>
       </c>
-      <c r="E13">
+      <c r="E46">
         <v>12.8099415206971</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+    <row r="47">
+      <c r="A47">
+        <v>233</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>G09</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>187</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>234</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>H10</t>
         </is>
       </c>
-      <c r="D14">
+      <c r="D48">
         <v>199</v>
       </c>
-      <c r="E14">
+      <c r="E48">
         <v>12.8099415206971</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+    <row r="49">
+      <c r="A49">
+        <v>234</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>H09</t>
         </is>
       </c>
-      <c r="D15">
+      <c r="D49">
         <v>206</v>
       </c>
-      <c r="E15">
+      <c r="E49">
         <v>20.9674021264967</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+    <row r="50">
+      <c r="A50">
+        <v>309</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>A11</t>
         </is>
       </c>
-      <c r="D16">
+      <c r="D50">
         <v>211</v>
       </c>
-      <c r="E16">
+      <c r="E50">
         <v>26.791645358668</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+    <row r="51">
+      <c r="A51">
+        <v>309</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>A12</t>
         </is>
       </c>
-      <c r="D17">
+      <c r="D51">
         <v>225</v>
       </c>
-      <c r="E17">
+      <c r="E51">
         <v>43.0921786470264</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+    <row r="52">
+      <c r="A52">
+        <v>312</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>B12</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>227</v>
+      </c>
+      <c r="E52">
+        <v>45.4201448889957</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>312</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>B11</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>251</v>
+      </c>
+      <c r="E53">
+        <v>73.34643689277711</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>314</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>C12</t>
         </is>
       </c>
-      <c r="D18">
+      <c r="D54">
         <v>202</v>
       </c>
-      <c r="E18">
+      <c r="E54">
         <v>16.3065999703976</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+    <row r="55">
+      <c r="A55">
+        <v>314</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>C11</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>183</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>316</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>D11</t>
         </is>
       </c>
-      <c r="D19">
+      <c r="D56">
         <v>207</v>
       </c>
-      <c r="E19">
+      <c r="E56">
         <v>22.1323926875378</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+    <row r="57">
+      <c r="A57">
+        <v>316</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>D12</t>
         </is>
       </c>
-      <c r="D20">
+      <c r="D57">
         <v>198</v>
       </c>
-      <c r="E20">
+      <c r="E57">
         <v>11.6441415229932</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+    <row r="58">
+      <c r="A58">
+        <v>317</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>E12</t>
         </is>
       </c>
-      <c r="D21">
+      <c r="D58">
         <v>199</v>
       </c>
-      <c r="E21">
+      <c r="E58">
         <v>12.8099415206971</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+    <row r="59">
+      <c r="A59">
+        <v>317</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>444</v>
+      </c>
+      <c r="E59">
+        <v>297.660379249843</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>318</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>F12</t>
         </is>
       </c>
-      <c r="D22">
+      <c r="D60">
         <v>209</v>
       </c>
-      <c r="E22">
+      <c r="E60">
         <v>24.4621537815603</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+    <row r="61">
+      <c r="A61">
+        <v>318</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>F11</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>187</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>321</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>G12</t>
         </is>
       </c>
-      <c r="D23">
+      <c r="D62">
         <v>211</v>
       </c>
-      <c r="E23">
+      <c r="E62">
         <v>26.791645358668</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Below Detection Range</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>H01</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>191</v>
-      </c>
-      <c r="E24">
-        <v>0.347815333493533</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Below Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>G01</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>217</v>
-      </c>
-      <c r="E25">
-        <v>3.37787270026818</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Below Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>G02</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>206</v>
-      </c>
-      <c r="E26">
-        <v>2.09674021264967</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Below Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C07</t>
-        </is>
-      </c>
-      <c r="D27">
+    <row r="63">
+      <c r="A63">
+        <v>321</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>338</v>
+      </c>
+      <c r="E63">
+        <v>174.498590985234</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>523</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B03</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>633</v>
+      </c>
+      <c r="E64">
+        <v>517.167583712585</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>523</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B04</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>747</v>
+      </c>
+      <c r="E65">
+        <v>649.542932075074</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>524</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>C03</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>377</v>
+      </c>
+      <c r="E66">
+        <v>219.819839250675</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>524</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>C04</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>437</v>
+      </c>
+      <c r="E67">
+        <v>289.528679356861</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>525</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D04</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>294</v>
+      </c>
+      <c r="E68">
+        <v>123.352548891295</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>525</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>D03</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>281</v>
+      </c>
+      <c r="E69">
+        <v>108.237302519506</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>526</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>E04</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>169</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>526</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>E03</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>176</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Below Fit Curve Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>F03</t>
+        </is>
+      </c>
+      <c r="D72">
         <v>172</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Below Fit Curve Range</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>D07</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>182</v>
-      </c>
-      <c r="F28" t="inlineStr">
+    <row r="73">
+      <c r="A73">
+        <v>527</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>163</v>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Below Fit Curve Range</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>E07</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>185</v>
-      </c>
-      <c r="F29" t="inlineStr">
+    <row r="74">
+      <c r="A74">
+        <v>528</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>G04</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>1420</v>
+      </c>
+      <c r="E74">
+        <v>1431.01968200367</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>528</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>1133</v>
+      </c>
+      <c r="E75">
+        <v>1097.73707174327</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>In Detection Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>530</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>H04</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>176</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>Below Fit Curve Range</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>G07</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>182</v>
-      </c>
-      <c r="F30" t="inlineStr">
+    <row r="77">
+      <c r="A77">
+        <v>530</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ang-2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>H03</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>171</v>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>C09</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>184</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>D10</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>185</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>D09</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>179</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E09</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>177</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>E10</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>184</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>F09</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>181</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>F10</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>182</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>G09</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>187</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>C11</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>183</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>F11</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>187</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E04</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>169</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E03</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>176</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>F03</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>172</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>F04</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>163</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>H04</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>176</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>H03</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>171</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>C06</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>177</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>C05</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>165</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>E05</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>155</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>E06</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>175</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>F05</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>176</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>178</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Blank</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>H02</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>188</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Below Fit Curve Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A08</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>374</v>
-      </c>
-      <c r="E54">
-        <v>216.333928004186</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A07</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>354</v>
-      </c>
-      <c r="E55">
-        <v>193.093137417641</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>F08</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>1535</v>
-      </c>
-      <c r="E56">
-        <v>1564.58349372689</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>F07</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>1539</v>
-      </c>
-      <c r="E57">
-        <v>1569.22941404894</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>H08</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>239</v>
-      </c>
-      <c r="E58">
-        <v>59.3852146786155</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>H07</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>230</v>
-      </c>
-      <c r="E59">
-        <v>48.9118321850936</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A10</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>227</v>
-      </c>
-      <c r="E60">
-        <v>45.4201448889957</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B12</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>227</v>
-      </c>
-      <c r="E61">
-        <v>45.4201448889957</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B11</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>251</v>
-      </c>
-      <c r="E62">
-        <v>73.34643689277711</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>E11</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>444</v>
-      </c>
-      <c r="E63">
-        <v>297.660379249843</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>338</v>
-      </c>
-      <c r="E64">
-        <v>174.498590985234</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B03</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>633</v>
-      </c>
-      <c r="E65">
-        <v>517.167583712585</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B04</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>747</v>
-      </c>
-      <c r="E66">
-        <v>649.542932075074</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>C03</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>377</v>
-      </c>
-      <c r="E67">
-        <v>219.819839250675</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>C04</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>437</v>
-      </c>
-      <c r="E68">
-        <v>289.528679356861</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>D04</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>294</v>
-      </c>
-      <c r="E69">
-        <v>123.352548891295</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D03</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>281</v>
-      </c>
-      <c r="E70">
-        <v>108.237302519506</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>G04</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>1420</v>
-      </c>
-      <c r="E71">
-        <v>1431.01968200367</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="D72">
-        <v>1133</v>
-      </c>
-      <c r="E72">
-        <v>1097.73707174327</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A05</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>300</v>
-      </c>
-      <c r="E73">
-        <v>130.32813348873</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A06</t>
-        </is>
-      </c>
-      <c r="D74">
-        <v>283</v>
-      </c>
-      <c r="E74">
-        <v>110.562865662346</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B06</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>2387</v>
-      </c>
-      <c r="E75">
-        <v>2554.57709632838</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B05</t>
-        </is>
-      </c>
-      <c r="D76">
-        <v>2274</v>
-      </c>
-      <c r="E76">
-        <v>2423.22238470807</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>D06</t>
-        </is>
-      </c>
-      <c r="D77">
-        <v>1062</v>
-      </c>
-      <c r="E77">
-        <v>1015.29509266599</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>D05</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>983</v>
-      </c>
-      <c r="E78">
-        <v>923.566100319583</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>G05</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>573</v>
-      </c>
-      <c r="E79">
-        <v>447.490556464268</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>G06</t>
-        </is>
-      </c>
-      <c r="D80">
-        <v>580</v>
-      </c>
-      <c r="E80">
-        <v>455.619825389825</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>H06</t>
-        </is>
-      </c>
-      <c r="D81">
-        <v>510</v>
-      </c>
-      <c r="E81">
-        <v>374.322892157983</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>H05</t>
-        </is>
-      </c>
-      <c r="D82">
-        <v>476</v>
-      </c>
-      <c r="E82">
-        <v>334.831711044201</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>H11</t>
-        </is>
-      </c>
-      <c r="D83">
-        <v>259</v>
-      </c>
-      <c r="E83">
-        <v>82.652188629888</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A03</t>
-        </is>
-      </c>
-      <c r="D84">
-        <v>348</v>
-      </c>
-      <c r="E84">
-        <v>186.120395712749</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A04</t>
-        </is>
-      </c>
-      <c r="D85">
-        <v>251</v>
-      </c>
-      <c r="E85">
-        <v>73.34643689277711</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>H12</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>274</v>
-      </c>
-      <c r="E86">
-        <v>100.097394886226</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A02</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>80524</v>
-      </c>
-      <c r="E87">
-        <v>9976.372194263769</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B01</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>21152</v>
-      </c>
-      <c r="E88">
-        <v>2469.31051219341</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B02</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>20784</v>
-      </c>
-      <c r="E89">
-        <v>2425.22011584826</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>C02</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>5564</v>
-      </c>
-      <c r="E90">
-        <v>625.584879485891</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>C01</t>
-        </is>
-      </c>
-      <c r="D91">
-        <v>5692</v>
-      </c>
-      <c r="E91">
-        <v>640.533308835866</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>D02</t>
-        </is>
-      </c>
-      <c r="D92">
-        <v>1579</v>
-      </c>
-      <c r="E92">
-        <v>161.568947842274</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>D01</t>
-        </is>
-      </c>
-      <c r="D93">
-        <v>1547</v>
-      </c>
-      <c r="E93">
-        <v>157.852130126331</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>E01</t>
-        </is>
-      </c>
-      <c r="D94">
-        <v>516</v>
-      </c>
-      <c r="E94">
-        <v>38.129161204382</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>E02</t>
-        </is>
-      </c>
-      <c r="D95">
-        <v>525</v>
-      </c>
-      <c r="E95">
-        <v>39.17445321052</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>F01</t>
-        </is>
-      </c>
-      <c r="D96">
-        <v>271</v>
-      </c>
-      <c r="E96">
-        <v>9.66086441521589</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Ang-2</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>F02</t>
-        </is>
-      </c>
-      <c r="D97">
-        <v>259</v>
-      </c>
-      <c r="E97">
-        <v>8.265218862988799</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>In Detection Range</t>
         </is>
       </c>
     </row>
@@ -13215,7 +12939,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13224,418 +12948,450 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Below Detection Range</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Below Fit Curve Range</t>
+          <t>Calc. Conc. CV</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>In Detection Range</t>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Calc. Conc. CV_std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>empty_column_std</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Calc. Conc. CV_QC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_QC</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Calc. Conc. CV</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n =</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>1.03390231564387</v>
+        <v>11.6037170016792</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>1.03390231564387</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>37.4835115666622</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
+      <c r="A3">
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>24.3952954113012</v>
+        <v>3.73184205918183</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>1.27393699662416</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
+      <c r="A4">
+        <v>76</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>1.66969179638218</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A5">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>6.69075153540782</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>1.64559397776217</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="A6">
+        <v>81</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>1.91228591691242</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
+      <c r="A7">
+        <v>82</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>11.0104412525239</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
+      <c r="A8">
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>20.7874817744819</v>
+        <v>1.27299193960083</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>33.0944848157534</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
+      <c r="A9">
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>3.1423095251286</v>
+        <v>7.87542852758162</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
+      <c r="A10">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>8.02766695794803</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+      <c r="A11">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>24.3952954113012</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>34.1542293667148</v>
+      <c r="A12">
+        <v>162</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>32.9867971283772</v>
+      <c r="A13">
+        <v>163</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
+      <c r="A14">
+        <v>164</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
+      <c r="A15">
+        <v>165</v>
       </c>
       <c r="B15">
-        <v>43.9139994352935</v>
+        <v>0.209659086949389</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>129.751324147404</v>
+      <c r="A16">
+        <v>166</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
+      <c r="A17">
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>13.6768268343455</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
+      <c r="A18">
+        <v>221</v>
       </c>
       <c r="B18">
-        <v>103.775110783272</v>
+        <v>20.7874817744819</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
+      <c r="A19">
+        <v>223</v>
       </c>
       <c r="B19">
-        <v>33.0944848157534</v>
+        <v>3.1423095251286</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
+      <c r="A20">
+        <v>228</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
+      <c r="A21">
+        <v>229</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
+      <c r="A22">
+        <v>230</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>526</t>
-        </is>
+      <c r="A23">
+        <v>232</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
+      <c r="A24">
+        <v>233</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>530</t>
-        </is>
+      <c r="A25">
+        <v>234</v>
+      </c>
+      <c r="B25">
+        <v>34.1542293667148</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="A26">
+        <v>309</v>
+      </c>
+      <c r="B26">
+        <v>32.9867971283772</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A27">
+        <v>312</v>
+      </c>
+      <c r="B27">
+        <v>33.2532437206171</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
+      <c r="A28">
+        <v>314</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
+      <c r="A29">
+        <v>316</v>
       </c>
       <c r="B29">
-        <v>8.02766695794803</v>
+        <v>43.9139994352935</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
+      <c r="A30">
+        <v>317</v>
       </c>
       <c r="B30">
-        <v>0.209659086949389</v>
+        <v>129.751324147404</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>13.6768268343455</v>
+      <c r="A31">
+        <v>318</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
+      <c r="A32">
+        <v>321</v>
       </c>
       <c r="B32">
-        <v>33.2532437206171</v>
+        <v>103.775110783272</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
+      <c r="A33">
+        <v>523</v>
       </c>
       <c r="B33">
         <v>16.045712320653</v>
@@ -13645,10 +13401,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
+      <c r="A34">
+        <v>524</v>
       </c>
       <c r="B34">
         <v>19.354760737299</v>
@@ -13658,10 +13412,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
+      <c r="A35">
+        <v>525</v>
       </c>
       <c r="B35">
         <v>9.23019134360837</v>
@@ -13671,158 +13423,37 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>528</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>18.6389136414551</v>
+      <c r="A36">
+        <v>526</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>11.6037170016792</v>
+      <c r="A37">
+        <v>527</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="A38">
+        <v>528</v>
       </c>
       <c r="B38">
-        <v>3.73184205918183</v>
+        <v>18.6389136414551</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>6.69075153540782</v>
+      <c r="A39">
+        <v>530</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>1.27299193960083</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>7.87542852758162</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>QC</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>13.5000292812892</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>1.27393699662416</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>1.66969179638218</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>1.64559397776217</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>1.91228591691242</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>11.0104412525239</v>
-      </c>
-      <c r="C47">
         <v>2</v>
       </c>
     </row>
